--- a/output/nswhealthitocallergyintolerancelist.xlsx
+++ b/output/nswhealthitocallergyintolerancelist.xlsx
@@ -749,7 +749,7 @@
 </t>
   </si>
   <si>
-    <t>Actual entry</t>
+    <t>A reference to a NSW Health Allergy Intolerance</t>
   </si>
   <si>
     <t>A reference to the actual resource from which data was derived.</t>
@@ -761,7 +761,7 @@
     <t>List.emptyReason</t>
   </si>
   <si>
-    <t>Why list is empty</t>
+    <t>The reason why the list is empty.</t>
   </si>
   <si>
     <t>If the list is empty, why the list is empty.</t>
